--- a/docs/assets/release/v0_1_0/jig/application.xlsx
+++ b/docs/assets/release/v0_1_0/jig/application.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="120">
   <si>
     <t/>
   </si>
@@ -54,30 +54,30 @@
     <t>TestController</t>
   </si>
   <si>
+    <t>allAccess()</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>/api/test/all</t>
+  </si>
+  <si>
+    <t>userAccess()</t>
+  </si>
+  <si>
+    <t>/api/test/user</t>
+  </si>
+  <si>
     <t>adminAccess()</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>/api/test/admin</t>
   </si>
   <si>
-    <t>allAccess()</t>
-  </si>
-  <si>
-    <t>/api/test/all</t>
-  </si>
-  <si>
-    <t>userAccess()</t>
-  </si>
-  <si>
-    <t>/api/test/user</t>
-  </si>
-  <si>
     <t>com.example.sms.presentation.api.system.auth</t>
   </si>
   <si>
@@ -114,16 +114,31 @@
     <t>UserApiController</t>
   </si>
   <si>
+    <t>select(int, int[])</t>
+  </si>
+  <si>
+    <t>ユーザーAPI</t>
+  </si>
+  <si>
+    <t>[UserManagementService]</t>
+  </si>
+  <si>
+    <t>/api/users/</t>
+  </si>
+  <si>
+    <t>find(String)</t>
+  </si>
+  <si>
+    <t>/api/users/{userId}</t>
+  </si>
+  <si>
     <t>create(UserResource)</t>
   </si>
   <si>
-    <t>ユーザーAPI</t>
-  </si>
-  <si>
     <t>[Message, PasswordEncoder, UserManagementService]</t>
   </si>
   <si>
-    <t>/api/users/</t>
+    <t>update(String, UserResource)</t>
   </si>
   <si>
     <t>delete(String)</t>
@@ -132,21 +147,6 @@
     <t>[Message, UserManagementService]</t>
   </si>
   <si>
-    <t>/api/users/{userId}</t>
-  </si>
-  <si>
-    <t>find(String)</t>
-  </si>
-  <si>
-    <t>[UserManagementService]</t>
-  </si>
-  <si>
-    <t>select(int, int[])</t>
-  </si>
-  <si>
-    <t>update(String, UserResource)</t>
-  </si>
-  <si>
     <t>イベントハンドラ</t>
   </si>
   <si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>PageInfo&lt;User&gt;</t>
+  </si>
+  <si>
+    <t>ユーザー一覧（ページング）</t>
   </si>
   <si>
     <t>[UserRepository.selectAllWithPageInfo()]</t>
@@ -612,7 +615,7 @@
         <v>33</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="s" s="0">
         <v>34</v>
@@ -635,13 +638,13 @@
         <v>32</v>
       </c>
       <c r="F8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -652,7 +655,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>22</v>
@@ -661,13 +664,13 @@
         <v>32</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -678,7 +681,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>22</v>
@@ -687,13 +690,13 @@
         <v>32</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +707,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>22</v>
@@ -713,13 +716,13 @@
         <v>32</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1293,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s" s="0">
         <v>0</v>
@@ -1308,7 +1311,7 @@
         <v>13</v>
       </c>
       <c r="M12" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N12" t="s" s="0">
         <v>0</v>
@@ -1373,22 +1376,22 @@
         <v>7</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M1" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
@@ -1396,16 +1399,16 @@
         <v>50</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>0</v>
@@ -1420,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>13</v>
@@ -1440,16 +1443,16 @@
         <v>50</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>0</v>
@@ -1484,7 +1487,7 @@
         <v>50</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>59</v>
@@ -1493,7 +1496,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>0</v>
@@ -1528,7 +1531,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>62</v>
@@ -1537,7 +1540,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>0</v>
@@ -1572,16 +1575,16 @@
         <v>74</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>77</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>0</v>
@@ -1596,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K6" t="s" s="0">
         <v>13</v>
@@ -1616,16 +1619,16 @@
         <v>74</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>77</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>0</v>
@@ -1646,7 +1649,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" t="n" s="0">
         <v>1.0</v>
@@ -1660,16 +1663,16 @@
         <v>74</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>0</v>
@@ -1684,7 +1687,7 @@
         <v>13</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s" s="0">
         <v>13</v>
@@ -1704,7 +1707,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>92</v>
@@ -1713,7 +1716,7 @@
         <v>77</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>0</v>
@@ -1725,13 +1728,13 @@
         <v>1.0</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s" s="0">
         <v>13</v>
@@ -1748,7 +1751,7 @@
         <v>74</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>94</v>
@@ -1757,7 +1760,7 @@
         <v>95</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>96</v>
@@ -1772,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s" s="0">
         <v>13</v>
@@ -1792,7 +1795,7 @@
         <v>74</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>98</v>
@@ -1801,7 +1804,7 @@
         <v>99</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>0</v>
@@ -1816,7 +1819,7 @@
         <v>13</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s" s="0">
         <v>13</v>
@@ -1836,16 +1839,16 @@
         <v>74</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>77</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>0</v>
@@ -1863,7 +1866,7 @@
         <v>13</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="0">
         <v>13</v>
